--- a/www/terminologies/ValueSet-jdv-mesure-type-verre-delivre-cisis.xlsx
+++ b/www/terminologies/ValueSet-jdv-mesure-type-verre-delivre-cisis.xlsx
@@ -38,7 +38,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>20250606103857</t>
+    <t>20250624152059</t>
   </si>
   <si>
     <t>Name</t>
@@ -68,7 +68,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-06T10:38:57+01:00</t>
+    <t>2025-06-24T15:20:59+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/www/terminologies/ValueSet-jdv-mesure-type-verre-delivre-cisis.xlsx
+++ b/www/terminologies/ValueSet-jdv-mesure-type-verre-delivre-cisis.xlsx
@@ -10,12 +10,13 @@
     <sheet name="Include #0" r:id="rId4" sheetId="2"/>
     <sheet name="Include #1" r:id="rId5" sheetId="3"/>
     <sheet name="Include #2" r:id="rId6" sheetId="4"/>
+    <sheet name="Include #3" r:id="rId7" sheetId="5"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="54">
   <si>
     <t>Property</t>
   </si>
@@ -38,7 +39,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>20250624152059</t>
+    <t>20251216141838</t>
   </si>
   <si>
     <t>Name</t>
@@ -68,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-24T15:20:59+01:00</t>
+    <t>2025-12-16T14:18:38+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -101,16 +102,10 @@
     <t>Concept</t>
   </si>
   <si>
-    <t>C80261</t>
-  </si>
-  <si>
-    <t>Monture</t>
-  </si>
-  <si>
     <t>C71898</t>
   </si>
   <si>
-    <t>nom de marque</t>
+    <t>nom commercial</t>
   </si>
   <si>
     <t/>
@@ -119,7 +114,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>https://smt.esante.gouv.fr/terminologie-ncit</t>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl</t>
   </si>
   <si>
     <t>MED-1181</t>
@@ -174,6 +169,15 @@
   </si>
   <si>
     <t>http://loinc.org</t>
+  </si>
+  <si>
+    <t>Q021002</t>
+  </si>
+  <si>
+    <t>MONTURES DE LUNETTES</t>
+  </si>
+  <si>
+    <t>https://smt.esante.gouv.fr/terminologie-emdn</t>
   </si>
 </sst>
 </file>
@@ -440,7 +444,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -471,23 +475,15 @@
         <v>30</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
         <v>32</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -517,66 +513,66 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -606,34 +602,83 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s" s="2">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s" s="2">
         <v>52</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
